--- a/data/dataframe_categories.xlsx
+++ b/data/dataframe_categories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -25,7 +25,70 @@
     <t>steam_appid</t>
   </si>
   <si>
+    <t>Single-player</t>
+  </si>
+  <si>
+    <t>Downloadable Content</t>
+  </si>
+  <si>
+    <t>Partial Controller Support</t>
+  </si>
+  <si>
+    <t>Remote Play Together</t>
+  </si>
+  <si>
+    <t>Steam Achievements</t>
+  </si>
+  <si>
+    <t>Multi-player</t>
+  </si>
+  <si>
+    <t>PvP</t>
+  </si>
+  <si>
+    <t>Online PvP</t>
+  </si>
+  <si>
+    <t>Co-op</t>
+  </si>
+  <si>
+    <t>Online Co-op</t>
+  </si>
+  <si>
+    <t>Steam Workshop</t>
+  </si>
+  <si>
+    <t>Captions available</t>
+  </si>
+  <si>
+    <t>Steam Cloud</t>
+  </si>
+  <si>
+    <t>Full controller support</t>
+  </si>
+  <si>
+    <t>Steam Leaderboards</t>
+  </si>
+  <si>
+    <t>MMO</t>
+  </si>
+  <si>
+    <t>Cross-Platform Multiplayer</t>
+  </si>
+  <si>
     <t>Game demo</t>
+  </si>
+  <si>
+    <t>LAN PvP</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Shared/Split Screen PvP</t>
+  </si>
+  <si>
+    <t>Shared/Split Screen</t>
   </si>
 </sst>
 </file>
@@ -383,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,13 +468,1903 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1859530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1859530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1859540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1859550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1859550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1859590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1859590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1859590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1859610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1859630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>1859630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1859640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1859650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>1859650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1877220</v>
+      <c r="D19">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1858710</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>1858710</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>1858710</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>1858710</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1858740</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>1858740</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1858760</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>1858760</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>1858760</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1858780</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>1858860</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>1858860</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1858870</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1858870</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>1858870</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>1858870</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>1858910</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>49</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>1859010</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>1859020</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>1859020</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>1859020</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>1859020</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>1859040</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>1859040</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>1859060</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>1859100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>1859110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>1859140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>49</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>36</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>1858240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>1858260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>1858270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>1858300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>1858300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>1858301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>1858301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>1858303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>1858305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>1858305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>49</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <v>37</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>28</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>44</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>49</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>36</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>47</v>
+      </c>
+      <c r="C102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>22</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>6</v>
+      </c>
+      <c r="B104">
+        <v>28</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>28</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>49</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>36</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>38</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>49</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>36</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>27</v>
+      </c>
+      <c r="C116" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>1858550</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>1858550</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>28</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119">
+        <v>1858550</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120">
+        <v>1858550</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>18</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>4</v>
+      </c>
+      <c r="B125">
+        <v>23</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>1858580</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>28</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127">
+        <v>1858580</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>1858600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>22</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129">
+        <v>1858600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>1858610</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>21</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>1858610</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132">
+        <v>1858610</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>1858650</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136">
+        <v>1858650</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>2</v>
+      </c>
+      <c r="B137">
+        <v>38</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <v>1858650</v>
       </c>
     </row>
   </sheetData>
